--- a/Subas.xlsx
+++ b/Subas.xlsx
@@ -13,15 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="Sushil" sheetId="2" r:id="rId1"/>
-    <sheet name="Maiya" r:id="rId6" sheetId="6"/>
-    <sheet name="Subas" r:id="rId7" sheetId="7"/>
+    <sheet name="Maiya" r:id="rId6" sheetId="10"/>
+    <sheet name="SubjectList" r:id="rId8" sheetId="11"/>
+    <sheet name="Subas" r:id="rId7" sheetId="12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="21">
   <si>
     <t>Subas</t>
   </si>
@@ -60,6 +61,30 @@
   </si>
   <si>
     <t>kldskajfsdkfa</t>
+  </si>
+  <si>
+    <t>SampleI</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  quantity</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>Ectric Machine</t>
+  </si>
+  <si>
+    <t>Electric Machine</t>
+  </si>
+  <si>
+    <t>Instrumentation I</t>
   </si>
 </sst>
 </file>
@@ -399,7 +424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -428,9 +453,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3500.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,139 +532,139 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.0</v>
+        <v>32.0</v>
       </c>
       <c r="B2" t="n">
         <v>89.0</v>
       </c>
       <c r="C2" t="n">
-        <v>12.0</v>
+        <v>96.0</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B3" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0</v>
+        <v>98.0</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B4" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0</v>
+        <v>98.0</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B5" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0</v>
+        <v>98.0</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B6" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C6" t="n">
-        <v>12.0</v>
+        <v>98.0</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B7" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0</v>
+        <v>98.0</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B8" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C8" t="n">
-        <v>12.0</v>
+        <v>98.0</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B9" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C9" t="n">
-        <v>12.0</v>
+        <v>98.0</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B10" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C10" t="n">
-        <v>12.0</v>
+        <v>98.0</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B11" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C11" t="n">
-        <v>96.0</v>
+        <v>98.0</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -592,58 +672,58 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B12" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C12" t="n">
-        <v>12.0</v>
+        <v>98.0</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>12.0</v>
+        <v>98.0</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B14" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C14" t="n">
-        <v>12.0</v>
+        <v>98.0</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="B15" t="n">
-        <v>89.0</v>
+        <v>12.0</v>
       </c>
       <c r="C15" t="n">
-        <v>12.0</v>
+        <v>98.0</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -802,254 +882,170 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="B27" t="n">
-        <v>12.0</v>
+        <v>89.0</v>
       </c>
       <c r="C27" t="n">
-        <v>98.0</v>
+        <v>12.0</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="B28" t="n">
-        <v>12.0</v>
+        <v>89.0</v>
       </c>
       <c r="C28" t="n">
-        <v>98.0</v>
+        <v>12.0</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="B29" t="n">
-        <v>12.0</v>
+        <v>89.0</v>
       </c>
       <c r="C29" t="n">
-        <v>98.0</v>
+        <v>12.0</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="B30" t="n">
-        <v>12.0</v>
+        <v>89.0</v>
       </c>
       <c r="C30" t="n">
-        <v>98.0</v>
+        <v>12.0</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="B31" t="n">
-        <v>12.0</v>
+        <v>89.0</v>
       </c>
       <c r="C31" t="n">
-        <v>98.0</v>
+        <v>12.0</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="B32" t="n">
-        <v>12.0</v>
+        <v>89.0</v>
       </c>
       <c r="C32" t="n">
-        <v>98.0</v>
+        <v>12.0</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>12.0</v>
+        <v>89.0</v>
       </c>
       <c r="C33" t="n">
-        <v>98.0</v>
+        <v>12.0</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="B34" t="n">
-        <v>12.0</v>
+        <v>89.0</v>
       </c>
       <c r="C34" t="n">
-        <v>98.0</v>
+        <v>12.0</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="B35" t="n">
-        <v>12.0</v>
+        <v>89.0</v>
       </c>
       <c r="C35" t="n">
-        <v>98.0</v>
+        <v>12.0</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="B36" t="n">
-        <v>12.0</v>
+        <v>89.0</v>
       </c>
       <c r="C36" t="n">
-        <v>98.0</v>
+        <v>12.0</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12.0</v>
+        <v>84.0</v>
       </c>
       <c r="B37" t="n">
-        <v>12.0</v>
+        <v>89.0</v>
       </c>
       <c r="C37" t="n">
-        <v>98.0</v>
+        <v>12.0</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="B38" t="n">
-        <v>12.0</v>
+        <v>89.0</v>
       </c>
       <c r="C38" t="n">
-        <v>98.0</v>
+        <v>12.0</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B41" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
